--- a/results/I3_N5_M2_T45_C150_DepCentral_s4_res_fix.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepCentral_s4_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>856.0110535355434</v>
+        <v>297.3343409182375</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01600003242492676</v>
+        <v>0.006999969482421875</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.30798779311381</v>
+        <v>29.33434091823749</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.546286090878944</v>
+        <v>3.175153539594582</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.509351833308906</v>
+        <v>3.175153539594582</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>832.7399999999997</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>33.71927412272879</v>
       </c>
     </row>
     <row r="4">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34.28956874289246</v>
+        <v>40.12799056179756</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>31.61595173195241</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>37.11679712152664</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>42.2624069007462</v>
+        <v>43.30314410139214</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>37.46472228248705</v>
+        <v>36.53529969079454</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,13 +1001,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1015,13 +1015,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1029,13 +1029,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1043,13 +1043,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1057,71 +1057,15 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1224,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.995</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8">
@@ -1235,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.51</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9">
@@ -1246,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.665</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
@@ -1257,7 +1201,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.505</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
@@ -1268,7 +1212,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.605</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
@@ -1279,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>80.51000000000066</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13">
@@ -1290,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>82.97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14">
@@ -1301,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>94.63500000000001</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
@@ -1312,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>93.47500000000001</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16">
@@ -1323,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>85.27</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17">
@@ -1334,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>163.99</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18">
@@ -1345,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>163.91</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19">
@@ -1356,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>161.67</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20">
@@ -1367,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>158.365</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21">
@@ -1378,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>152.585</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22">
@@ -1389,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>142.9850000000007</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23">
@@ -1400,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>153.285</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -1411,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>157.295</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25">
@@ -1422,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>166.685</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26">
@@ -1433,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>159.335</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27">
@@ -1444,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>205.4700000000004</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1455,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>221.05</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1466,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>227.8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -1477,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>235.7449999999997</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
@@ -1488,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>225.7849999999997</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1499,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>205.4700000000004</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33">
@@ -1510,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>221.05</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34">
@@ -1521,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>227.8</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35">
@@ -1532,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>235.7449999999997</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36">
@@ -1543,7 +1487,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>225.7849999999997</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37">
@@ -1554,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>163.99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38">
@@ -1565,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>163.91</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39">
@@ -1576,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>161.67</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40">
@@ -1587,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>158.365</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41">
@@ -1598,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>152.585</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1645,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>55.47000000000043</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -1656,7 +1600,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>71.05</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -1667,7 +1611,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>77.8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -1678,7 +1622,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>85.74499999999972</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -1689,7 +1633,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>75.78499999999971</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -1700,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>13.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1711,7 +1655,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1722,7 +1666,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>11.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1733,7 +1677,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>8.365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1744,7 +1688,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>2.585</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2011,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2022,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2033,7 +1977,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2044,7 +1988,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2055,7 +1999,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2069,7 +2013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2149,105 +2093,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
